--- a/Code/Results/Cases/Case_0_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_79/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.308123399506367</v>
+        <v>4.067937038739815</v>
       </c>
       <c r="D2">
-        <v>4.395901607470694</v>
+        <v>7.775327537238806</v>
       </c>
       <c r="E2">
-        <v>8.715424479136955</v>
+        <v>12.79089778093609</v>
       </c>
       <c r="F2">
-        <v>51.49346052741255</v>
+        <v>43.55292226603626</v>
       </c>
       <c r="G2">
-        <v>77.90536560178035</v>
+        <v>55.81828364157803</v>
       </c>
       <c r="H2">
-        <v>19.48376110365574</v>
+        <v>19.41613829829461</v>
       </c>
       <c r="I2">
-        <v>35.87992063714934</v>
+        <v>30.49359561336956</v>
       </c>
       <c r="J2">
-        <v>6.806331376039683</v>
+        <v>10.09421402311757</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.290525136809241</v>
+        <v>4.079197275270559</v>
       </c>
       <c r="D3">
-        <v>4.402569171514977</v>
+        <v>7.783950329519477</v>
       </c>
       <c r="E3">
-        <v>8.452723501292599</v>
+        <v>12.79621159339102</v>
       </c>
       <c r="F3">
-        <v>48.03355434718441</v>
+        <v>42.80830285766464</v>
       </c>
       <c r="G3">
-        <v>72.23335680188416</v>
+        <v>54.23993323042032</v>
       </c>
       <c r="H3">
-        <v>18.3080881566311</v>
+        <v>19.23223933023548</v>
       </c>
       <c r="I3">
-        <v>33.31565032009384</v>
+        <v>29.98868480780467</v>
       </c>
       <c r="J3">
-        <v>6.608231452086493</v>
+        <v>10.0996582748656</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.282556462437959</v>
+        <v>4.086823181783126</v>
       </c>
       <c r="D4">
-        <v>4.407637747358901</v>
+        <v>7.78959301488488</v>
       </c>
       <c r="E4">
-        <v>8.297782208123317</v>
+        <v>12.80222834265451</v>
       </c>
       <c r="F4">
-        <v>45.86274823672517</v>
+        <v>42.36012949402318</v>
       </c>
       <c r="G4">
-        <v>68.69293775649228</v>
+        <v>53.26890903784871</v>
       </c>
       <c r="H4">
-        <v>17.57795894462996</v>
+        <v>19.12460663806837</v>
       </c>
       <c r="I4">
-        <v>31.81888175881564</v>
+        <v>29.68522153962684</v>
       </c>
       <c r="J4">
-        <v>6.491872185819619</v>
+        <v>10.10513802733391</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.279957180085518</v>
+        <v>4.090109392622828</v>
       </c>
       <c r="D5">
-        <v>4.40993078318212</v>
+        <v>7.791980221878919</v>
       </c>
       <c r="E5">
-        <v>8.236187276299747</v>
+        <v>12.80537095394674</v>
       </c>
       <c r="F5">
-        <v>44.9662441794264</v>
+        <v>42.18000477163218</v>
       </c>
       <c r="G5">
-        <v>67.22415212548117</v>
+        <v>52.87339574061173</v>
       </c>
       <c r="H5">
-        <v>17.27835207241016</v>
+        <v>19.08211190537825</v>
       </c>
       <c r="I5">
-        <v>31.20094266631945</v>
+        <v>29.56336527187998</v>
       </c>
       <c r="J5">
-        <v>6.445728477650898</v>
+        <v>10.10790694008695</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.279562946285022</v>
+        <v>4.090665838468388</v>
       </c>
       <c r="D6">
-        <v>4.41032482700866</v>
+        <v>7.792381922476633</v>
       </c>
       <c r="E6">
-        <v>8.226051460945509</v>
+        <v>12.80593444346415</v>
       </c>
       <c r="F6">
-        <v>44.81666224329559</v>
+        <v>42.15025368690427</v>
       </c>
       <c r="G6">
-        <v>66.97867291171541</v>
+        <v>52.80775238547449</v>
       </c>
       <c r="H6">
-        <v>17.22847957561439</v>
+        <v>19.07513927552335</v>
       </c>
       <c r="I6">
-        <v>31.09785160925531</v>
+        <v>29.54324488440697</v>
       </c>
       <c r="J6">
-        <v>6.438141926353727</v>
+        <v>10.10839903397151</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.282518864482271</v>
+        <v>4.086866778263603</v>
       </c>
       <c r="D7">
-        <v>4.407667771697307</v>
+        <v>7.789624853964821</v>
       </c>
       <c r="E7">
-        <v>8.296945323756058</v>
+        <v>12.80226793078284</v>
       </c>
       <c r="F7">
-        <v>45.85070584521971</v>
+        <v>42.35768979431207</v>
       </c>
       <c r="G7">
-        <v>68.67323539928272</v>
+        <v>53.26357334810292</v>
       </c>
       <c r="H7">
-        <v>17.57392665124524</v>
+        <v>19.1240279581947</v>
       </c>
       <c r="I7">
-        <v>31.8105804097262</v>
+        <v>29.68357061698875</v>
       </c>
       <c r="J7">
-        <v>6.491244780833465</v>
+        <v>10.10517320223392</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.301424859085681</v>
+        <v>4.071671495189759</v>
       </c>
       <c r="D8">
-        <v>4.397986722118207</v>
+        <v>7.778228512134253</v>
       </c>
       <c r="E8">
-        <v>8.623488339827182</v>
+        <v>12.79215737886158</v>
       </c>
       <c r="F8">
-        <v>50.30989328129113</v>
+        <v>43.29444933870976</v>
       </c>
       <c r="G8">
-        <v>75.9685428695888</v>
+        <v>55.2748563996356</v>
       </c>
       <c r="H8">
-        <v>19.08007083848177</v>
+        <v>19.35165752383271</v>
       </c>
       <c r="I8">
-        <v>34.97396813012472</v>
+        <v>30.3182387230674</v>
       </c>
       <c r="J8">
-        <v>6.736896164829218</v>
+        <v>10.09564683369204</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.364456960077029</v>
+        <v>4.047544973677527</v>
       </c>
       <c r="D9">
-        <v>4.387730002617381</v>
+        <v>7.758634923494901</v>
       </c>
       <c r="E9">
-        <v>9.317755030256789</v>
+        <v>12.79425332100533</v>
       </c>
       <c r="F9">
-        <v>59.02579234656348</v>
+        <v>45.19235793348977</v>
       </c>
       <c r="G9">
-        <v>89.61132843279329</v>
+        <v>59.17608532848412</v>
       </c>
       <c r="H9">
-        <v>22.35212274804469</v>
+        <v>19.83812848513048</v>
       </c>
       <c r="I9">
-        <v>41.34147474667935</v>
+        <v>31.60769287801812</v>
       </c>
       <c r="J9">
-        <v>7.263675654285998</v>
+        <v>10.09398137337363</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.432445893682862</v>
+        <v>4.033306825936784</v>
       </c>
       <c r="D10">
-        <v>4.387340490539723</v>
+        <v>7.745907050268788</v>
       </c>
       <c r="E10">
-        <v>9.867857641980772</v>
+        <v>12.80924056609112</v>
       </c>
       <c r="F10">
-        <v>65.31034501833949</v>
+        <v>46.60957261525966</v>
       </c>
       <c r="G10">
-        <v>99.28487081992581</v>
+        <v>61.98165221265616</v>
       </c>
       <c r="H10">
-        <v>24.74752300462463</v>
+        <v>20.21737083869742</v>
       </c>
       <c r="I10">
-        <v>45.84056723312365</v>
+        <v>32.57281943039996</v>
       </c>
       <c r="J10">
-        <v>7.684499518319979</v>
+        <v>10.10320331252063</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.469812263894198</v>
+        <v>4.027593510409077</v>
       </c>
       <c r="D11">
-        <v>4.389305614884972</v>
+        <v>7.740476480735686</v>
       </c>
       <c r="E11">
-        <v>10.1293380462177</v>
+        <v>12.81899056674729</v>
       </c>
       <c r="F11">
-        <v>68.1510379211358</v>
+        <v>47.25628024516141</v>
       </c>
       <c r="G11">
-        <v>103.6518622846195</v>
+        <v>63.23832606388049</v>
       </c>
       <c r="H11">
-        <v>25.82992299464993</v>
+        <v>20.39404390176285</v>
       </c>
       <c r="I11">
-        <v>47.86828483659368</v>
+        <v>33.0137342405848</v>
       </c>
       <c r="J11">
-        <v>7.885455473047331</v>
+        <v>10.10967815739478</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.485079504981625</v>
+        <v>4.025540408111198</v>
       </c>
       <c r="D12">
-        <v>4.390427820365157</v>
+        <v>7.738471567625872</v>
       </c>
       <c r="E12">
-        <v>10.23027982611147</v>
+        <v>12.8231046955808</v>
       </c>
       <c r="F12">
-        <v>69.22722115515383</v>
+        <v>47.50122072253081</v>
       </c>
       <c r="G12">
-        <v>105.3055581717588</v>
+        <v>63.71089757901808</v>
       </c>
       <c r="H12">
-        <v>26.23994949857817</v>
+        <v>20.46149083548896</v>
       </c>
       <c r="I12">
-        <v>48.6356607818779</v>
+        <v>33.18080441632883</v>
       </c>
       <c r="J12">
-        <v>7.963184209542516</v>
+        <v>10.11245835723047</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.481738117700812</v>
+        <v>4.025977660591148</v>
       </c>
       <c r="D13">
-        <v>4.390167956864096</v>
+        <v>7.738901072355381</v>
       </c>
       <c r="E13">
-        <v>10.20844852775573</v>
+        <v>12.82219987252583</v>
       </c>
       <c r="F13">
-        <v>68.99536559111334</v>
+        <v>47.4484701162484</v>
       </c>
       <c r="G13">
-        <v>104.9493124865461</v>
+        <v>63.60927505002351</v>
       </c>
       <c r="H13">
-        <v>26.15161371359378</v>
+        <v>20.44694155215288</v>
       </c>
       <c r="I13">
-        <v>48.47037117636533</v>
+        <v>33.14482073616266</v>
       </c>
       <c r="J13">
-        <v>7.946366266498035</v>
+        <v>10.11184498395798</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617575</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.471044631128334</v>
+        <v>4.027422384339199</v>
       </c>
       <c r="D14">
-        <v>4.389389880350842</v>
+        <v>7.740310503551906</v>
       </c>
       <c r="E14">
-        <v>10.13760186180866</v>
+        <v>12.81932057978252</v>
       </c>
       <c r="F14">
-        <v>68.23954568335969</v>
+        <v>47.27643207546983</v>
       </c>
       <c r="G14">
-        <v>103.7878799217245</v>
+        <v>63.2772736443035</v>
       </c>
       <c r="H14">
-        <v>25.8636451334947</v>
+        <v>20.39958218944841</v>
       </c>
       <c r="I14">
-        <v>47.93141173517879</v>
+        <v>33.02747801478522</v>
       </c>
       <c r="J14">
-        <v>7.891815759274968</v>
+        <v>10.10990030410748</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.464646645010701</v>
+        <v>4.028321715129525</v>
       </c>
       <c r="D15">
-        <v>4.388964980817263</v>
+        <v>7.74118052647524</v>
       </c>
       <c r="E15">
-        <v>10.09446786429532</v>
+        <v>12.81761189429875</v>
       </c>
       <c r="F15">
-        <v>67.77675312803572</v>
+        <v>47.171052790493</v>
       </c>
       <c r="G15">
-        <v>103.0766375201301</v>
+        <v>63.07346929284495</v>
       </c>
       <c r="H15">
-        <v>25.68731625842436</v>
+        <v>20.37064257097967</v>
       </c>
       <c r="I15">
-        <v>47.60129882798037</v>
+        <v>32.95561114459639</v>
       </c>
       <c r="J15">
-        <v>7.858623670535356</v>
+        <v>10.10875189896328</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549472</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.430148729493471</v>
+        <v>4.033695622037798</v>
       </c>
       <c r="D16">
-        <v>4.387260670830386</v>
+        <v>7.746269169429544</v>
       </c>
       <c r="E16">
-        <v>9.851019522087327</v>
+        <v>12.80866242263741</v>
       </c>
       <c r="F16">
-        <v>65.12457744467272</v>
+        <v>46.56732825125147</v>
       </c>
       <c r="G16">
-        <v>98.99918569555201</v>
+        <v>61.89908879863994</v>
       </c>
       <c r="H16">
-        <v>24.67673345649416</v>
+        <v>20.20590394254982</v>
       </c>
       <c r="I16">
-        <v>45.70784838757293</v>
+        <v>32.54402816467353</v>
       </c>
       <c r="J16">
-        <v>7.671578665693597</v>
+        <v>10.10282608747741</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.42464283346099</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.410755799026853</v>
+        <v>4.037188354973475</v>
       </c>
       <c r="D17">
-        <v>4.386807165312048</v>
+        <v>7.749482826417784</v>
       </c>
       <c r="E17">
-        <v>9.70473912251998</v>
+        <v>12.8039235813655</v>
       </c>
       <c r="F17">
-        <v>63.49482948989991</v>
+        <v>46.19730219973583</v>
       </c>
       <c r="G17">
-        <v>96.4922444826483</v>
+        <v>61.17326632242001</v>
       </c>
       <c r="H17">
-        <v>24.05565593517113</v>
+        <v>20.10586883792672</v>
       </c>
       <c r="I17">
-        <v>44.54284254977107</v>
+        <v>32.29189684943368</v>
       </c>
       <c r="J17">
-        <v>7.559432349447979</v>
+        <v>10.09977510984827</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.400193568985814</v>
+        <v>4.039269128899833</v>
       </c>
       <c r="D18">
-        <v>4.386742730734898</v>
+        <v>7.751365074753176</v>
       </c>
       <c r="E18">
-        <v>9.621636543094683</v>
+        <v>12.80147391798385</v>
       </c>
       <c r="F18">
-        <v>62.55550088824069</v>
+        <v>45.98467618138552</v>
       </c>
       <c r="G18">
-        <v>95.04680329044302</v>
+        <v>60.75397454483106</v>
       </c>
       <c r="H18">
-        <v>23.69765508766912</v>
+        <v>20.04872548346213</v>
       </c>
       <c r="I18">
-        <v>43.87081417054635</v>
+        <v>32.14706349118212</v>
       </c>
       <c r="J18">
-        <v>7.495805081706332</v>
+        <v>10.09823483244172</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.5640428768043</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.396714002101618</v>
+        <v>4.039985965060463</v>
       </c>
       <c r="D19">
-        <v>4.386752852583509</v>
+        <v>7.752008188215047</v>
       </c>
       <c r="E19">
-        <v>9.593669204801413</v>
+        <v>12.80069188997182</v>
       </c>
       <c r="F19">
-        <v>62.23704674238252</v>
+        <v>45.91272709304162</v>
       </c>
       <c r="G19">
-        <v>94.55667175173382</v>
+        <v>60.61171286734237</v>
       </c>
       <c r="H19">
-        <v>23.57627826479652</v>
+        <v>20.02944701854527</v>
       </c>
       <c r="I19">
-        <v>43.64288341536002</v>
+        <v>32.09806242153538</v>
       </c>
       <c r="J19">
-        <v>7.474405826134759</v>
+        <v>10.09775015397219</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.412757700023744</v>
+        <v>4.036809107536405</v>
       </c>
       <c r="D20">
-        <v>4.386834675113976</v>
+        <v>7.749137226204421</v>
       </c>
       <c r="E20">
-        <v>9.72020198194342</v>
+        <v>12.80439947130398</v>
       </c>
       <c r="F20">
-        <v>63.66850018857507</v>
+        <v>46.23667286139244</v>
       </c>
       <c r="G20">
-        <v>96.75944562739559</v>
+        <v>61.25072317052038</v>
       </c>
       <c r="H20">
-        <v>24.12184317441369</v>
+        <v>20.11647732707275</v>
       </c>
       <c r="I20">
-        <v>44.66704663619337</v>
+        <v>32.31871862397813</v>
       </c>
       <c r="J20">
-        <v>7.571278186694759</v>
+        <v>10.10007768078277</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.474153455054848</v>
+        <v>4.026995032819365</v>
       </c>
       <c r="D21">
-        <v>4.389607488689967</v>
+        <v>7.73989512227204</v>
       </c>
       <c r="E21">
-        <v>10.15835601443182</v>
+        <v>12.82015484309059</v>
       </c>
       <c r="F21">
-        <v>68.46150624581834</v>
+        <v>47.32696445070297</v>
       </c>
       <c r="G21">
-        <v>104.128975009639</v>
+        <v>63.37488382026352</v>
       </c>
       <c r="H21">
-        <v>25.94821330125716</v>
+        <v>20.41347842282217</v>
       </c>
       <c r="I21">
-        <v>48.08970905810622</v>
+        <v>33.06194283953486</v>
       </c>
       <c r="J21">
-        <v>7.907791772983032</v>
+        <v>10.11046259045562</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.54550027501425</v>
+        <v>4.021224779697764</v>
       </c>
       <c r="D22">
-        <v>4.393674105071778</v>
+        <v>7.734155135375105</v>
       </c>
       <c r="E22">
-        <v>10.45616199634967</v>
+        <v>12.83291167125705</v>
       </c>
       <c r="F22">
-        <v>71.59893790045821</v>
+        <v>48.03969709016903</v>
       </c>
       <c r="G22">
-        <v>108.9488060233237</v>
+        <v>64.74369508337041</v>
       </c>
       <c r="H22">
-        <v>27.14352846494009</v>
+        <v>20.6107357861555</v>
       </c>
       <c r="I22">
-        <v>50.32538414243649</v>
+        <v>33.54822457537121</v>
       </c>
       <c r="J22">
-        <v>8.163658058848991</v>
+        <v>10.11916348416585</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.495275288907545</v>
+        <v>4.024245366627381</v>
       </c>
       <c r="D23">
-        <v>4.39126784053657</v>
+        <v>7.737191250719981</v>
       </c>
       <c r="E23">
-        <v>10.29603818078978</v>
+        <v>12.82587799992599</v>
       </c>
       <c r="F23">
-        <v>69.92270440427005</v>
+        <v>47.65936106480507</v>
       </c>
       <c r="G23">
-        <v>106.3740702237705</v>
+        <v>64.01506375992464</v>
       </c>
       <c r="H23">
-        <v>26.5049211605723</v>
+        <v>20.50518514818209</v>
       </c>
       <c r="I23">
-        <v>49.13135542701912</v>
+        <v>33.28869005859318</v>
       </c>
       <c r="J23">
-        <v>8.013865228061231</v>
+        <v>10.11434443829059</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.411850825867164</v>
+        <v>4.036980338731152</v>
       </c>
       <c r="D24">
-        <v>4.386821631483659</v>
+        <v>7.749293364046929</v>
       </c>
       <c r="E24">
-        <v>9.71320814279964</v>
+        <v>12.80418346567895</v>
       </c>
       <c r="F24">
-        <v>63.58999125191254</v>
+        <v>46.21887303382024</v>
       </c>
       <c r="G24">
-        <v>96.63865731556346</v>
+        <v>61.21571114275402</v>
       </c>
       <c r="H24">
-        <v>24.09192292129106</v>
+        <v>20.11168007841129</v>
       </c>
       <c r="I24">
-        <v>44.61090114088189</v>
+        <v>32.30659211250465</v>
       </c>
       <c r="J24">
-        <v>7.565920063537031</v>
+        <v>10.09994022265642</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.344089419786535</v>
+        <v>4.053461589684665</v>
       </c>
       <c r="D25">
-        <v>4.389409923912875</v>
+        <v>7.76364183937358</v>
       </c>
       <c r="E25">
-        <v>9.123568296505395</v>
+        <v>12.79132965375935</v>
       </c>
       <c r="F25">
-        <v>56.67906936709976</v>
+        <v>44.67388760418577</v>
       </c>
       <c r="G25">
-        <v>85.99356139827604</v>
+        <v>58.12901065079915</v>
       </c>
       <c r="H25">
-        <v>21.45724853694573</v>
+        <v>19.70249413479848</v>
       </c>
       <c r="I25">
-        <v>39.65584195898879</v>
+        <v>31.255051104559</v>
       </c>
       <c r="J25">
-        <v>7.115805639217212</v>
+        <v>10.09260199049056</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_79/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.067937038739815</v>
+        <v>2.308123399506353</v>
       </c>
       <c r="D2">
-        <v>7.775327537238806</v>
+        <v>4.395901607470755</v>
       </c>
       <c r="E2">
-        <v>12.79089778093609</v>
+        <v>8.715424479136928</v>
       </c>
       <c r="F2">
-        <v>43.55292226603626</v>
+        <v>51.49346052741259</v>
       </c>
       <c r="G2">
-        <v>55.81828364157803</v>
+        <v>77.90536560178047</v>
       </c>
       <c r="H2">
-        <v>19.41613829829461</v>
+        <v>19.48376110365576</v>
       </c>
       <c r="I2">
-        <v>30.49359561336956</v>
+        <v>35.87992063714945</v>
       </c>
       <c r="J2">
-        <v>10.09421402311757</v>
+        <v>6.806331376039687</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.079197275270559</v>
+        <v>2.29052513680917</v>
       </c>
       <c r="D3">
-        <v>7.783950329519477</v>
+        <v>4.402569171515043</v>
       </c>
       <c r="E3">
-        <v>12.79621159339102</v>
+        <v>8.452723501292606</v>
       </c>
       <c r="F3">
-        <v>42.80830285766464</v>
+        <v>48.03355434718434</v>
       </c>
       <c r="G3">
-        <v>54.23993323042032</v>
+        <v>72.23335680188406</v>
       </c>
       <c r="H3">
-        <v>19.23223933023548</v>
+        <v>18.30808815663108</v>
       </c>
       <c r="I3">
-        <v>29.98868480780467</v>
+        <v>33.31565032009379</v>
       </c>
       <c r="J3">
-        <v>10.0996582748656</v>
+        <v>6.608231452086476</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.086823181783126</v>
+        <v>2.282556462437972</v>
       </c>
       <c r="D4">
-        <v>7.78959301488488</v>
+        <v>4.407637747358696</v>
       </c>
       <c r="E4">
-        <v>12.80222834265451</v>
+        <v>8.297782208123246</v>
       </c>
       <c r="F4">
-        <v>42.36012949402318</v>
+        <v>45.86274823672522</v>
       </c>
       <c r="G4">
-        <v>53.26890903784871</v>
+        <v>68.69293775649244</v>
       </c>
       <c r="H4">
-        <v>19.12460663806837</v>
+        <v>17.57795894462995</v>
       </c>
       <c r="I4">
-        <v>29.68522153962684</v>
+        <v>31.81888175881566</v>
       </c>
       <c r="J4">
-        <v>10.10513802733391</v>
+        <v>6.491872185819581</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.090109392622828</v>
+        <v>2.279957180085427</v>
       </c>
       <c r="D5">
-        <v>7.791980221878919</v>
+        <v>4.409930783182252</v>
       </c>
       <c r="E5">
-        <v>12.80537095394674</v>
+        <v>8.236187276299784</v>
       </c>
       <c r="F5">
-        <v>42.18000477163218</v>
+        <v>44.9662441794264</v>
       </c>
       <c r="G5">
-        <v>52.87339574061173</v>
+        <v>67.22415212548117</v>
       </c>
       <c r="H5">
-        <v>19.08211190537825</v>
+        <v>17.27835207241016</v>
       </c>
       <c r="I5">
-        <v>29.56336527187998</v>
+        <v>31.20094266631945</v>
       </c>
       <c r="J5">
-        <v>10.10790694008695</v>
+        <v>6.4457284776509</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.090665838468388</v>
+        <v>2.279562946284984</v>
       </c>
       <c r="D6">
-        <v>7.792381922476633</v>
+        <v>4.410324827008527</v>
       </c>
       <c r="E6">
-        <v>12.80593444346415</v>
+        <v>8.226051460945554</v>
       </c>
       <c r="F6">
-        <v>42.15025368690427</v>
+        <v>44.81666224329557</v>
       </c>
       <c r="G6">
-        <v>52.80775238547449</v>
+        <v>66.97867291171531</v>
       </c>
       <c r="H6">
-        <v>19.07513927552335</v>
+        <v>17.22847957561441</v>
       </c>
       <c r="I6">
-        <v>29.54324488440697</v>
+        <v>31.09785160925531</v>
       </c>
       <c r="J6">
-        <v>10.10839903397151</v>
+        <v>6.438141926353759</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.086866778263603</v>
+        <v>2.282518864482182</v>
       </c>
       <c r="D7">
-        <v>7.789624853964821</v>
+        <v>4.40766777169731</v>
       </c>
       <c r="E7">
-        <v>12.80226793078284</v>
+        <v>8.296945323756018</v>
       </c>
       <c r="F7">
-        <v>42.35768979431207</v>
+        <v>45.85070584521972</v>
       </c>
       <c r="G7">
-        <v>53.26357334810292</v>
+        <v>68.67323539928273</v>
       </c>
       <c r="H7">
-        <v>19.1240279581947</v>
+        <v>17.57392665124526</v>
       </c>
       <c r="I7">
-        <v>29.68357061698875</v>
+        <v>31.81058040972622</v>
       </c>
       <c r="J7">
-        <v>10.10517320223392</v>
+        <v>6.491244780833416</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.071671495189759</v>
+        <v>2.301424859085538</v>
       </c>
       <c r="D8">
-        <v>7.778228512134253</v>
+        <v>4.397986722118205</v>
       </c>
       <c r="E8">
-        <v>12.79215737886158</v>
+        <v>8.623488339827157</v>
       </c>
       <c r="F8">
-        <v>43.29444933870976</v>
+        <v>50.3098932812911</v>
       </c>
       <c r="G8">
-        <v>55.2748563996356</v>
+        <v>75.96854286958882</v>
       </c>
       <c r="H8">
-        <v>19.35165752383271</v>
+        <v>19.08007083848173</v>
       </c>
       <c r="I8">
-        <v>30.3182387230674</v>
+        <v>34.9739681301247</v>
       </c>
       <c r="J8">
-        <v>10.09564683369204</v>
+        <v>6.736896164829218</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.047544973677527</v>
+        <v>2.364456960077069</v>
       </c>
       <c r="D9">
-        <v>7.758634923494901</v>
+        <v>4.387730002617251</v>
       </c>
       <c r="E9">
-        <v>12.79425332100533</v>
+        <v>9.317755030256794</v>
       </c>
       <c r="F9">
-        <v>45.19235793348977</v>
+        <v>59.02579234656349</v>
       </c>
       <c r="G9">
-        <v>59.17608532848412</v>
+        <v>89.6113284327932</v>
       </c>
       <c r="H9">
-        <v>19.83812848513048</v>
+        <v>22.35212274804471</v>
       </c>
       <c r="I9">
-        <v>31.60769287801812</v>
+        <v>41.34147474667935</v>
       </c>
       <c r="J9">
-        <v>10.09398137337363</v>
+        <v>7.263675654286016</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.033306825936784</v>
+        <v>2.4324458936828</v>
       </c>
       <c r="D10">
-        <v>7.745907050268788</v>
+        <v>4.387340490539991</v>
       </c>
       <c r="E10">
-        <v>12.80924056609112</v>
+        <v>9.867857641980804</v>
       </c>
       <c r="F10">
-        <v>46.60957261525966</v>
+        <v>65.3103450183397</v>
       </c>
       <c r="G10">
-        <v>61.98165221265616</v>
+        <v>99.28487081992627</v>
       </c>
       <c r="H10">
-        <v>20.21737083869742</v>
+        <v>24.74752300462472</v>
       </c>
       <c r="I10">
-        <v>32.57281943039996</v>
+        <v>45.84056723312383</v>
       </c>
       <c r="J10">
-        <v>10.10320331252063</v>
+        <v>7.684499518319984</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.027593510409077</v>
+        <v>2.469812263894212</v>
       </c>
       <c r="D11">
-        <v>7.740476480735686</v>
+        <v>4.389305614884974</v>
       </c>
       <c r="E11">
-        <v>12.81899056674729</v>
+        <v>10.12933804621772</v>
       </c>
       <c r="F11">
-        <v>47.25628024516141</v>
+        <v>68.15103792113581</v>
       </c>
       <c r="G11">
-        <v>63.23832606388049</v>
+        <v>103.6518622846194</v>
       </c>
       <c r="H11">
-        <v>20.39404390176285</v>
+        <v>25.82992299464994</v>
       </c>
       <c r="I11">
-        <v>33.0137342405848</v>
+        <v>47.86828483659369</v>
       </c>
       <c r="J11">
-        <v>10.10967815739478</v>
+        <v>7.885455473047339</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.025540408111198</v>
+        <v>2.485079504981576</v>
       </c>
       <c r="D12">
-        <v>7.738471567625872</v>
+        <v>4.390427820365225</v>
       </c>
       <c r="E12">
-        <v>12.8231046955808</v>
+        <v>10.23027982611147</v>
       </c>
       <c r="F12">
-        <v>47.50122072253081</v>
+        <v>69.22722115515401</v>
       </c>
       <c r="G12">
-        <v>63.71089757901808</v>
+        <v>105.3055581717591</v>
       </c>
       <c r="H12">
-        <v>20.46149083548896</v>
+        <v>26.23994949857823</v>
       </c>
       <c r="I12">
-        <v>33.18080441632883</v>
+        <v>48.63566078187805</v>
       </c>
       <c r="J12">
-        <v>10.11245835723047</v>
+        <v>7.963184209542498</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.025977660591148</v>
+        <v>2.481738117700899</v>
       </c>
       <c r="D13">
-        <v>7.738901072355381</v>
+        <v>4.390167956864096</v>
       </c>
       <c r="E13">
-        <v>12.82219987252583</v>
+        <v>10.20844852775573</v>
       </c>
       <c r="F13">
-        <v>47.4484701162484</v>
+        <v>68.99536559111354</v>
       </c>
       <c r="G13">
-        <v>63.60927505002351</v>
+        <v>104.9493124865464</v>
       </c>
       <c r="H13">
-        <v>20.44694155215288</v>
+        <v>26.15161371359386</v>
       </c>
       <c r="I13">
-        <v>33.14482073616266</v>
+        <v>48.47037117636548</v>
       </c>
       <c r="J13">
-        <v>10.11184498395798</v>
+        <v>7.946366266498043</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617576</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.027422384339199</v>
+        <v>2.471044631128319</v>
       </c>
       <c r="D14">
-        <v>7.740310503551906</v>
+        <v>4.389389880351107</v>
       </c>
       <c r="E14">
-        <v>12.81932057978252</v>
+        <v>10.13760186180868</v>
       </c>
       <c r="F14">
-        <v>47.27643207546983</v>
+        <v>68.23954568335991</v>
       </c>
       <c r="G14">
-        <v>63.2772736443035</v>
+        <v>103.787879921725</v>
       </c>
       <c r="H14">
-        <v>20.39958218944841</v>
+        <v>25.86364513349478</v>
       </c>
       <c r="I14">
-        <v>33.02747801478522</v>
+        <v>47.93141173517895</v>
       </c>
       <c r="J14">
-        <v>10.10990030410748</v>
+        <v>7.891815759274966</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.028321715129525</v>
+        <v>2.464646645010799</v>
       </c>
       <c r="D15">
-        <v>7.74118052647524</v>
+        <v>4.388964980817391</v>
       </c>
       <c r="E15">
-        <v>12.81761189429875</v>
+        <v>10.09446786429529</v>
       </c>
       <c r="F15">
-        <v>47.171052790493</v>
+        <v>67.77675312803598</v>
       </c>
       <c r="G15">
-        <v>63.07346929284495</v>
+        <v>103.0766375201305</v>
       </c>
       <c r="H15">
-        <v>20.37064257097967</v>
+        <v>25.68731625842448</v>
       </c>
       <c r="I15">
-        <v>32.95561114459639</v>
+        <v>47.60129882798055</v>
       </c>
       <c r="J15">
-        <v>10.10875189896328</v>
+        <v>7.858623670535331</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.033695622037798</v>
+        <v>2.430148729493376</v>
       </c>
       <c r="D16">
-        <v>7.746269169429544</v>
+        <v>4.387260670830442</v>
       </c>
       <c r="E16">
-        <v>12.80866242263741</v>
+        <v>9.851019522087332</v>
       </c>
       <c r="F16">
-        <v>46.56732825125147</v>
+        <v>65.12457744467237</v>
       </c>
       <c r="G16">
-        <v>61.89908879863994</v>
+        <v>98.99918569555143</v>
       </c>
       <c r="H16">
-        <v>20.20590394254982</v>
+        <v>24.67673345649404</v>
       </c>
       <c r="I16">
-        <v>32.54402816467353</v>
+        <v>45.70784838757265</v>
       </c>
       <c r="J16">
-        <v>10.10282608747741</v>
+        <v>7.671578665693596</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.037188354973475</v>
+        <v>2.410755799026748</v>
       </c>
       <c r="D17">
-        <v>7.749482826417784</v>
+        <v>4.386807165312048</v>
       </c>
       <c r="E17">
-        <v>12.8039235813655</v>
+        <v>9.704739122520005</v>
       </c>
       <c r="F17">
-        <v>46.19730219973583</v>
+        <v>63.49482948989993</v>
       </c>
       <c r="G17">
-        <v>61.17326632242001</v>
+        <v>96.49224448264846</v>
       </c>
       <c r="H17">
-        <v>20.10586883792672</v>
+        <v>24.05565593517116</v>
       </c>
       <c r="I17">
-        <v>32.29189684943368</v>
+        <v>44.54284254977113</v>
       </c>
       <c r="J17">
-        <v>10.09977510984827</v>
+        <v>7.559432349447991</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.039269128899833</v>
+        <v>2.400193568985767</v>
       </c>
       <c r="D18">
-        <v>7.751365074753176</v>
+        <v>4.386742730734905</v>
       </c>
       <c r="E18">
-        <v>12.80147391798385</v>
+        <v>9.62163654309467</v>
       </c>
       <c r="F18">
-        <v>45.98467618138552</v>
+        <v>62.55550088824069</v>
       </c>
       <c r="G18">
-        <v>60.75397454483106</v>
+        <v>95.0468032904429</v>
       </c>
       <c r="H18">
-        <v>20.04872548346213</v>
+        <v>23.69765508766909</v>
       </c>
       <c r="I18">
-        <v>32.14706349118212</v>
+        <v>43.8708141705463</v>
       </c>
       <c r="J18">
-        <v>10.09823483244172</v>
+        <v>7.495805081706313</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.039985965060463</v>
+        <v>2.39671400210165</v>
       </c>
       <c r="D19">
-        <v>7.752008188215047</v>
+        <v>4.386752852583315</v>
       </c>
       <c r="E19">
-        <v>12.80069188997182</v>
+        <v>9.593669204801358</v>
       </c>
       <c r="F19">
-        <v>45.91272709304162</v>
+        <v>62.23704674238242</v>
       </c>
       <c r="G19">
-        <v>60.61171286734237</v>
+        <v>94.55667175173356</v>
       </c>
       <c r="H19">
-        <v>20.02944701854527</v>
+        <v>23.57627826479646</v>
       </c>
       <c r="I19">
-        <v>32.09806242153538</v>
+        <v>43.6428834153599</v>
       </c>
       <c r="J19">
-        <v>10.09775015397219</v>
+        <v>7.474405826134759</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.036809107536405</v>
+        <v>2.412757700023669</v>
       </c>
       <c r="D20">
-        <v>7.749137226204421</v>
+        <v>4.386834675113914</v>
       </c>
       <c r="E20">
-        <v>12.80439947130398</v>
+        <v>9.720201981943417</v>
       </c>
       <c r="F20">
-        <v>46.23667286139244</v>
+        <v>63.66850018857498</v>
       </c>
       <c r="G20">
-        <v>61.25072317052038</v>
+        <v>96.75944562739546</v>
       </c>
       <c r="H20">
-        <v>20.11647732707275</v>
+        <v>24.12184317441367</v>
       </c>
       <c r="I20">
-        <v>32.31871862397813</v>
+        <v>44.66704663619331</v>
       </c>
       <c r="J20">
-        <v>10.10007768078277</v>
+        <v>7.571278186694749</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.026995032819365</v>
+        <v>2.474153455054878</v>
       </c>
       <c r="D21">
-        <v>7.73989512227204</v>
+        <v>4.389607488689831</v>
       </c>
       <c r="E21">
-        <v>12.82015484309059</v>
+        <v>10.15835601443181</v>
       </c>
       <c r="F21">
-        <v>47.32696445070297</v>
+        <v>68.46150624581844</v>
       </c>
       <c r="G21">
-        <v>63.37488382026352</v>
+        <v>104.1289750096391</v>
       </c>
       <c r="H21">
-        <v>20.41347842282217</v>
+        <v>25.94821330125719</v>
       </c>
       <c r="I21">
-        <v>33.06194283953486</v>
+        <v>48.08970905810626</v>
       </c>
       <c r="J21">
-        <v>10.11046259045562</v>
+        <v>7.907791772983024</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633594</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.021224779697764</v>
+        <v>2.545500275014198</v>
       </c>
       <c r="D22">
-        <v>7.734155135375105</v>
+        <v>4.393674105071909</v>
       </c>
       <c r="E22">
-        <v>12.83291167125705</v>
+        <v>10.4561619963497</v>
       </c>
       <c r="F22">
-        <v>48.03969709016903</v>
+        <v>71.5989379004583</v>
       </c>
       <c r="G22">
-        <v>64.74369508337041</v>
+        <v>108.9488060233239</v>
       </c>
       <c r="H22">
-        <v>20.6107357861555</v>
+        <v>27.1435284649401</v>
       </c>
       <c r="I22">
-        <v>33.54822457537121</v>
+        <v>50.32538414243655</v>
       </c>
       <c r="J22">
-        <v>10.11916348416585</v>
+        <v>8.163658058848952</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.024245366627381</v>
+        <v>2.495275288907492</v>
       </c>
       <c r="D23">
-        <v>7.737191250719981</v>
+        <v>4.39126784053644</v>
       </c>
       <c r="E23">
-        <v>12.82587799992599</v>
+        <v>10.2960381807898</v>
       </c>
       <c r="F23">
-        <v>47.65936106480507</v>
+        <v>69.92270440427009</v>
       </c>
       <c r="G23">
-        <v>64.01506375992464</v>
+        <v>106.3740702237706</v>
       </c>
       <c r="H23">
-        <v>20.50518514818209</v>
+        <v>26.50492116057235</v>
       </c>
       <c r="I23">
-        <v>33.28869005859318</v>
+        <v>49.13135542701915</v>
       </c>
       <c r="J23">
-        <v>10.11434443829059</v>
+        <v>8.013865228061261</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.036980338731152</v>
+        <v>2.41185082586718</v>
       </c>
       <c r="D24">
-        <v>7.749293364046929</v>
+        <v>4.386821631483594</v>
       </c>
       <c r="E24">
-        <v>12.80418346567895</v>
+        <v>9.713208142799616</v>
       </c>
       <c r="F24">
-        <v>46.21887303382024</v>
+        <v>63.58999125191266</v>
       </c>
       <c r="G24">
-        <v>61.21571114275402</v>
+        <v>96.63865731556362</v>
       </c>
       <c r="H24">
-        <v>20.11168007841129</v>
+        <v>24.09192292129111</v>
       </c>
       <c r="I24">
-        <v>32.30659211250465</v>
+        <v>44.61090114088198</v>
       </c>
       <c r="J24">
-        <v>10.09994022265642</v>
+        <v>7.565920063537009</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911917</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.053461589684665</v>
+        <v>2.344089419786579</v>
       </c>
       <c r="D25">
-        <v>7.76364183937358</v>
+        <v>4.389409923912942</v>
       </c>
       <c r="E25">
-        <v>12.79132965375935</v>
+        <v>9.123568296505425</v>
       </c>
       <c r="F25">
-        <v>44.67388760418577</v>
+        <v>56.6790693670998</v>
       </c>
       <c r="G25">
-        <v>58.12901065079915</v>
+        <v>85.99356139827614</v>
       </c>
       <c r="H25">
-        <v>19.70249413479848</v>
+        <v>21.45724853694574</v>
       </c>
       <c r="I25">
-        <v>31.255051104559</v>
+        <v>39.65584195898879</v>
       </c>
       <c r="J25">
-        <v>10.09260199049056</v>
+        <v>7.115805639217212</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088411</v>
       </c>
       <c r="O25">
         <v>0</v>
